--- a/English/Super Memory/复习.xlsx
+++ b/English/Super Memory/复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E01D6F1-2897-4C1F-90F1-8CF72D342D8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F2B02-2B55-4792-99E7-2CBECC3EB1B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +331,18 @@
     <t>e201908162321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>e201908171135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e201908171210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908182128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +396,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +434,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -430,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -441,6 +464,8 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -723,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1106,7 @@
       <c r="G7" s="5">
         <v>43691</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <f t="shared" si="7"/>
         <v>43696</v>
       </c>
@@ -1137,7 +1162,7 @@
         <f t="shared" si="7"/>
         <v>43686</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="10">
         <f>H8+5</f>
         <v>43691</v>
       </c>
@@ -1193,7 +1218,7 @@
       <c r="I9" s="5">
         <v>43681</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>43696</v>
       </c>
@@ -1757,7 +1782,7 @@
       <c r="G20" s="5">
         <v>43690</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <f t="shared" si="9"/>
         <v>43695</v>
       </c>
@@ -1813,7 +1838,7 @@
         <f t="shared" si="9"/>
         <v>43689</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <f t="shared" si="8"/>
         <v>43694</v>
       </c>
@@ -1969,7 +1994,7 @@
       <c r="H24" s="5">
         <v>43690</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="5">
         <f t="shared" si="8"/>
         <v>43695</v>
       </c>
@@ -2017,7 +2042,7 @@
       <c r="G25" s="5">
         <v>43690</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="5">
         <f>G25+5</f>
         <v>43695</v>
       </c>
@@ -2279,31 +2304,31 @@
         <v>43672</v>
       </c>
       <c r="H30" s="5">
-        <v>43690</v>
-      </c>
-      <c r="I30" s="9">
+        <v>43695</v>
+      </c>
+      <c r="I30" s="3">
         <f>H30+5</f>
-        <v>43695</v>
+        <v>43700</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="2"/>
-        <v>43710</v>
+        <v>43715</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="11"/>
-        <v>43740</v>
+        <v>43745</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="11"/>
-        <v>43770</v>
+        <v>43775</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" si="4"/>
-        <v>43860</v>
+        <v>43865</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="5"/>
-        <v>44040</v>
+        <v>44045</v>
       </c>
       <c r="O30" s="1"/>
     </row>
@@ -2485,31 +2510,31 @@
         <v>43667</v>
       </c>
       <c r="H34" s="5">
-        <v>43690</v>
-      </c>
-      <c r="I34" s="9">
+        <v>43695</v>
+      </c>
+      <c r="I34" s="3">
         <f>H34+5</f>
-        <v>43695</v>
+        <v>43700</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" ref="J34:J65" si="13">I34+15</f>
-        <v>43710</v>
+        <v>43715</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="11"/>
-        <v>43740</v>
+        <v>43745</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="11"/>
-        <v>43770</v>
+        <v>43775</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="4"/>
-        <v>43860</v>
+        <v>43865</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="5"/>
-        <v>44040</v>
+        <v>44045</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3048,7 +3073,7 @@
         <f t="shared" ref="H45:H108" si="17">G45+5</f>
         <v>43691</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="7">
         <f t="shared" si="14"/>
         <v>43696</v>
       </c>
@@ -3100,7 +3125,7 @@
         <f t="shared" si="17"/>
         <v>43692</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="9">
         <f t="shared" si="14"/>
         <v>43697</v>
       </c>
@@ -3199,7 +3224,7 @@
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="9">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
@@ -3250,7 +3275,7 @@
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="9">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
@@ -3301,7 +3326,7 @@
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="9">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
@@ -3349,7 +3374,7 @@
         <f t="shared" si="15"/>
         <v>43693</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="5">
         <f t="shared" si="12"/>
         <v>43695</v>
       </c>
@@ -3397,11 +3422,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3449,11 +3474,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3501,11 +3526,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3553,11 +3578,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3605,11 +3630,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3657,11 +3682,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3709,11 +3734,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="5">
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="9">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
@@ -3757,11 +3782,11 @@
         <f t="shared" si="6"/>
         <v>43693</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <f t="shared" si="0"/>
         <v>43694</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="7">
         <f t="shared" si="15"/>
         <v>43696</v>
       </c>
@@ -3809,11 +3834,11 @@
         <f t="shared" si="6"/>
         <v>43693</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <f t="shared" si="0"/>
         <v>43694</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="7">
         <f t="shared" si="15"/>
         <v>43696</v>
       </c>
@@ -3851,141 +3876,158 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D61" s="3">
+      <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43694</v>
+      </c>
+      <c r="D61" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
+        <v>43694</v>
+      </c>
+      <c r="E61" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
+        <v>43695</v>
+      </c>
+      <c r="F61" s="9">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43697</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43699</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43704</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43709</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>43724</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="16"/>
-        <v>60</v>
+        <v>43754</v>
       </c>
       <c r="L61" s="3">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>43784</v>
       </c>
       <c r="M61" s="3">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>43874</v>
       </c>
       <c r="N61" s="3">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D62" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43694</v>
+      </c>
+      <c r="D62" s="5">
+        <v>43330</v>
+      </c>
+      <c r="E62" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>43331</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43333</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43335</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43340</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43345</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>43360</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" ref="K62:L81" si="18">J62+30</f>
-        <v>60</v>
+        <v>43390</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43420</v>
       </c>
       <c r="M62" s="3">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>43510</v>
       </c>
       <c r="N62" s="3">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>43690</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D63" s="3">
+      <c r="A63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43695</v>
+      </c>
+      <c r="D63" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
+        <v>43695</v>
+      </c>
+      <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>43696</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43698</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43700</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43705</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43710</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>43725</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43755</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43785</v>
       </c>
       <c r="M63" s="3">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>43875</v>
       </c>
       <c r="N63" s="3">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">

--- a/English/Super Memory/复习.xlsx
+++ b/English/Super Memory/复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F2B02-2B55-4792-99E7-2CBECC3EB1B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A982C-E5C0-4FE3-8022-0D0E12447778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="86">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,38 @@
     <t>j201908182128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>e201908202207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e201908212201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e201908212202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e201908222233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e201908222234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e201908241531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908252008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908252007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -398,12 +430,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +473,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -465,7 +504,7 @@
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -748,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,7 +869,7 @@
         <v>43661</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E65" si="0">D2+1</f>
+        <f t="shared" ref="E2:E64" si="0">D2+1</f>
         <v>43662</v>
       </c>
       <c r="F2" s="5">
@@ -958,7 +997,7 @@
         <f>H4+5</f>
         <v>43686</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="11">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1106,11 +1145,11 @@
       <c r="G7" s="5">
         <v>43691</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="7"/>
         <v>43696</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <f>H7+5</f>
         <v>43701</v>
       </c>
@@ -1166,23 +1205,23 @@
         <f>H8+5</f>
         <v>43691</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>43706</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="10">
         <f t="shared" si="3"/>
         <v>43736</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="10">
         <f t="shared" si="3"/>
         <v>43766</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="10">
         <f t="shared" si="4"/>
         <v>43856</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="10">
         <f t="shared" si="5"/>
         <v>44036</v>
       </c>
@@ -1216,27 +1255,27 @@
         <v>43672</v>
       </c>
       <c r="I9" s="5">
-        <v>43681</v>
-      </c>
-      <c r="J9" s="7">
+        <v>43696</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
-        <v>43696</v>
+        <v>43711</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="3"/>
-        <v>43726</v>
+        <v>43741</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="3"/>
-        <v>43756</v>
+        <v>43771</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
-        <v>43846</v>
+        <v>43861</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-        <v>44026</v>
+        <v>44041</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -1322,7 +1361,7 @@
         <f t="shared" si="8"/>
         <v>43686</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="11">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1374,7 +1413,7 @@
         <f t="shared" si="8"/>
         <v>43686</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="11">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1426,7 +1465,7 @@
         <f t="shared" si="8"/>
         <v>43686</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1786,7 +1825,7 @@
         <f t="shared" si="9"/>
         <v>43695</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <f t="shared" si="8"/>
         <v>43700</v>
       </c>
@@ -1946,7 +1985,7 @@
         <f t="shared" si="8"/>
         <v>43687</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="7">
         <f t="shared" si="2"/>
         <v>43702</v>
       </c>
@@ -2046,7 +2085,7 @@
         <f>G25+5</f>
         <v>43695</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="5">
         <f t="shared" si="8"/>
         <v>43700</v>
       </c>
@@ -2256,27 +2295,27 @@
         <v>43677</v>
       </c>
       <c r="I29" s="5">
-        <v>43683</v>
+        <v>43698</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="2"/>
-        <v>43698</v>
+        <v>43713</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="11"/>
-        <v>43728</v>
+        <v>43743</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="11"/>
-        <v>43758</v>
+        <v>43773</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="4"/>
-        <v>43848</v>
+        <v>43863</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="5"/>
-        <v>44028</v>
+        <v>44043</v>
       </c>
       <c r="O29" s="1"/>
     </row>
@@ -2306,7 +2345,7 @@
       <c r="H30" s="5">
         <v>43695</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="5">
         <f>H30+5</f>
         <v>43700</v>
       </c>
@@ -2360,27 +2399,27 @@
         <v>43673</v>
       </c>
       <c r="I31" s="5">
-        <v>43683</v>
+        <v>43698</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="2"/>
-        <v>43698</v>
+        <v>43713</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="11"/>
-        <v>43728</v>
+        <v>43743</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="11"/>
-        <v>43758</v>
+        <v>43773</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" si="4"/>
-        <v>43848</v>
+        <v>43863</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="5"/>
-        <v>44028</v>
+        <v>44043</v>
       </c>
       <c r="O31" s="1"/>
     </row>
@@ -2412,27 +2451,27 @@
         <v>43672</v>
       </c>
       <c r="I32" s="5">
-        <v>43683</v>
+        <v>43698</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="2"/>
-        <v>43698</v>
+        <v>43713</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="11"/>
-        <v>43728</v>
+        <v>43743</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="11"/>
-        <v>43758</v>
+        <v>43773</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="4"/>
-        <v>43848</v>
+        <v>43863</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="5"/>
-        <v>44028</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2463,27 +2502,27 @@
         <v>43675</v>
       </c>
       <c r="I33" s="5">
-        <v>43683</v>
+        <v>43698</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="2"/>
-        <v>43698</v>
+        <v>43713</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="11"/>
-        <v>43728</v>
+        <v>43743</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="11"/>
-        <v>43758</v>
+        <v>43773</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="4"/>
-        <v>43848</v>
+        <v>43863</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="5"/>
-        <v>44028</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2510,31 +2549,31 @@
         <v>43667</v>
       </c>
       <c r="H34" s="5">
-        <v>43695</v>
+        <v>43700</v>
       </c>
       <c r="I34" s="3">
         <f>H34+5</f>
-        <v>43700</v>
+        <v>43705</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" ref="J34:J65" si="13">I34+15</f>
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="11"/>
-        <v>43745</v>
+        <v>43750</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="11"/>
-        <v>43775</v>
+        <v>43780</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="4"/>
-        <v>43865</v>
+        <v>43870</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="5"/>
-        <v>44045</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2567,7 +2606,7 @@
       <c r="I35" s="5">
         <v>43682</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="11">
         <f t="shared" si="13"/>
         <v>43697</v>
       </c>
@@ -2618,7 +2657,7 @@
         <f t="shared" ref="I36:I99" si="14">H36+5</f>
         <v>43687</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="7">
         <f t="shared" si="13"/>
         <v>43702</v>
       </c>
@@ -2669,7 +2708,7 @@
         <f t="shared" si="14"/>
         <v>43687</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="7">
         <f t="shared" si="13"/>
         <v>43702</v>
       </c>
@@ -2720,7 +2759,7 @@
         <f t="shared" si="14"/>
         <v>43687</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="7">
         <f t="shared" si="13"/>
         <v>43702</v>
       </c>
@@ -3073,7 +3112,7 @@
         <f t="shared" ref="H45:H108" si="17">G45+5</f>
         <v>43691</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="5">
         <f t="shared" si="14"/>
         <v>43696</v>
       </c>
@@ -3125,7 +3164,7 @@
         <f t="shared" si="17"/>
         <v>43692</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="5">
         <f t="shared" si="14"/>
         <v>43697</v>
       </c>
@@ -3177,7 +3216,7 @@
         <f t="shared" si="17"/>
         <v>43693</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="5">
         <f t="shared" si="14"/>
         <v>43698</v>
       </c>
@@ -3224,11 +3263,11 @@
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="7">
         <f t="shared" si="14"/>
         <v>43702</v>
       </c>
@@ -3275,11 +3314,11 @@
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="5">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="7">
         <f t="shared" si="14"/>
         <v>43702</v>
       </c>
@@ -3326,11 +3365,11 @@
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="7">
         <f t="shared" si="14"/>
         <v>43702</v>
       </c>
@@ -3378,7 +3417,7 @@
         <f t="shared" si="12"/>
         <v>43695</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="5">
         <f t="shared" si="17"/>
         <v>43700</v>
       </c>
@@ -3426,11 +3465,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3478,11 +3517,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3530,11 +3569,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3582,11 +3621,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3634,11 +3673,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3686,11 +3725,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3738,11 +3777,11 @@
         <f t="shared" si="15"/>
         <v>43695</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="5">
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="7">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3786,11 +3825,11 @@
         <f t="shared" si="0"/>
         <v>43694</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <f t="shared" si="15"/>
         <v>43696</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="5">
         <f t="shared" si="12"/>
         <v>43698</v>
       </c>
@@ -3838,11 +3877,11 @@
         <f t="shared" si="0"/>
         <v>43694</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <f t="shared" si="15"/>
         <v>43696</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="5">
         <f t="shared" si="12"/>
         <v>43698</v>
       </c>
@@ -3890,11 +3929,11 @@
         <f t="shared" si="0"/>
         <v>43695</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="5">
         <f t="shared" si="15"/>
         <v>43697</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="5">
         <f t="shared" si="12"/>
         <v>43699</v>
       </c>
@@ -3935,47 +3974,47 @@
         <v>43694</v>
       </c>
       <c r="D62" s="5">
-        <v>43330</v>
-      </c>
-      <c r="E62" s="7">
+        <v>43331</v>
+      </c>
+      <c r="E62" s="5">
         <f t="shared" si="0"/>
-        <v>43331</v>
-      </c>
-      <c r="F62" s="3">
+        <v>43332</v>
+      </c>
+      <c r="F62" s="5">
         <f t="shared" si="15"/>
-        <v>43333</v>
-      </c>
-      <c r="G62" s="3">
+        <v>43334</v>
+      </c>
+      <c r="G62" s="5">
         <f t="shared" si="12"/>
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="17"/>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="14"/>
-        <v>43345</v>
+        <v>43346</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="13"/>
-        <v>43360</v>
+        <v>43361</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" ref="K62:L81" si="18">J62+30</f>
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="18"/>
-        <v>43420</v>
+        <v>43421</v>
       </c>
       <c r="M62" s="3">
         <f t="shared" si="4"/>
-        <v>43510</v>
+        <v>43511</v>
       </c>
       <c r="N62" s="3">
         <f t="shared" si="5"/>
-        <v>43690</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3989,15 +4028,15 @@
         <f t="shared" si="6"/>
         <v>43695</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="8">
         <f t="shared" si="0"/>
         <v>43696</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="8">
         <f t="shared" si="15"/>
         <v>43698</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="8">
         <f t="shared" si="12"/>
         <v>43700</v>
       </c>
@@ -4031,374 +4070,421 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D64" s="3">
+      <c r="A64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43697</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
+        <v>43697</v>
+      </c>
+      <c r="E64" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
+        <v>43698</v>
+      </c>
+      <c r="F64" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="G64" s="3">
+        <v>43700</v>
+      </c>
+      <c r="G64" s="7">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43702</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43707</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43712</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>43727</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43757</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43787</v>
       </c>
       <c r="M64" s="3">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>43877</v>
       </c>
       <c r="N64" s="3">
         <f t="shared" si="5"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D65" s="3">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43698</v>
+      </c>
+      <c r="D65" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
+        <v>43698</v>
+      </c>
+      <c r="E65" s="5">
+        <v>43701</v>
+      </c>
+      <c r="F65" s="9">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43703</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43705</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43710</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43715</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>43730</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43760</v>
       </c>
       <c r="L65" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43790</v>
       </c>
       <c r="M65" s="3">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>43880</v>
       </c>
       <c r="N65" s="3">
         <f t="shared" si="5"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D66" s="3">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43698</v>
+      </c>
+      <c r="D66" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
+        <v>43698</v>
+      </c>
+      <c r="E66" s="5">
         <f t="shared" ref="E66:E129" si="19">D66+1</f>
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
+        <v>43699</v>
+      </c>
+      <c r="F66" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43701</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43703</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43708</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43713</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" ref="J66:J97" si="20">I66+15</f>
-        <v>30</v>
+        <v>43728</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43758</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43788</v>
       </c>
       <c r="M66" s="3">
         <f t="shared" ref="M66:M129" si="21">L66+90</f>
-        <v>180</v>
+        <v>43878</v>
       </c>
       <c r="N66" s="3">
         <f t="shared" ref="N66:N129" si="22">M66+180</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D67" s="3">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43699</v>
+      </c>
+      <c r="D67" s="5">
         <f t="shared" ref="D67:D130" si="23">C67</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
+        <v>43699</v>
+      </c>
+      <c r="E67" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F67" s="7">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43702</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43704</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43709</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43714</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43729</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43759</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43789</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43879</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D68" s="3">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43699</v>
+      </c>
+      <c r="D68" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
+        <v>43699</v>
+      </c>
+      <c r="E68" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F68" s="7">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43702</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43704</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43709</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43714</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43729</v>
       </c>
       <c r="K68" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43759</v>
       </c>
       <c r="L68" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43789</v>
       </c>
       <c r="M68" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43879</v>
       </c>
       <c r="N68" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D69" s="3">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43701</v>
+      </c>
+      <c r="D69" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
+        <v>43701</v>
+      </c>
+      <c r="E69" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43702</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43704</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43706</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43711</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43716</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43731</v>
       </c>
       <c r="K69" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43761</v>
       </c>
       <c r="L69" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43791</v>
       </c>
       <c r="M69" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43881</v>
       </c>
       <c r="N69" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D70" s="3">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43702</v>
+      </c>
+      <c r="D70" s="8">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>43702</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43703</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43705</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43707</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43712</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43717</v>
       </c>
       <c r="J70" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43732</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43762</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43792</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43882</v>
       </c>
       <c r="N70" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D71" s="3">
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43702</v>
+      </c>
+      <c r="D71" s="8">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>43702</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43703</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43705</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43707</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43712</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43717</v>
       </c>
       <c r="J71" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43732</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43762</v>
       </c>
       <c r="L71" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43792</v>
       </c>
       <c r="M71" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43882</v>
       </c>
       <c r="N71" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.2">
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D72" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4444,7 +4530,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D73" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4490,7 +4576,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D74" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4536,7 +4622,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D75" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4582,7 +4668,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D76" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4628,7 +4714,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D77" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4674,7 +4760,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D78" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4720,7 +4806,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D79" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -4766,7 +4852,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D80" s="3">
         <f t="shared" si="23"/>
         <v>0</v>

--- a/English/Super Memory/复习.xlsx
+++ b/English/Super Memory/复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A982C-E5C0-4FE3-8022-0D0E12447778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C608A-68B7-42EA-9184-9FEFB767BCC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,30 @@
     <t>j201908252007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>e201908262241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908262258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908262310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908262330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908272203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j201908272300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +460,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,19 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -500,11 +512,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -787,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,7 +1007,7 @@
         <f>H4+5</f>
         <v>43686</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1201,27 +1211,27 @@
         <f t="shared" si="7"/>
         <v>43686</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f>H8+5</f>
         <v>43691</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>43706</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="8">
         <f t="shared" si="3"/>
         <v>43736</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <f t="shared" si="3"/>
         <v>43766</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <f t="shared" si="4"/>
         <v>43856</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="8">
         <f t="shared" si="5"/>
         <v>44036</v>
       </c>
@@ -1361,7 +1371,7 @@
         <f t="shared" si="8"/>
         <v>43686</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1413,7 +1423,7 @@
         <f t="shared" si="8"/>
         <v>43686</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1465,7 +1475,7 @@
         <f t="shared" si="8"/>
         <v>43686</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <f t="shared" si="2"/>
         <v>43701</v>
       </c>
@@ -1985,7 +1995,7 @@
         <f t="shared" si="8"/>
         <v>43687</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="9">
         <f t="shared" si="2"/>
         <v>43702</v>
       </c>
@@ -2141,7 +2151,7 @@
         <f t="shared" si="8"/>
         <v>43688</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="9">
         <f t="shared" si="2"/>
         <v>43703</v>
       </c>
@@ -2245,7 +2255,7 @@
         <f t="shared" si="8"/>
         <v>43688</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="9">
         <f t="shared" si="2"/>
         <v>43703</v>
       </c>
@@ -2606,7 +2616,7 @@
       <c r="I35" s="5">
         <v>43682</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <f t="shared" si="13"/>
         <v>43697</v>
       </c>
@@ -2657,7 +2667,7 @@
         <f t="shared" ref="I36:I99" si="14">H36+5</f>
         <v>43687</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="9">
         <f t="shared" si="13"/>
         <v>43702</v>
       </c>
@@ -2708,7 +2718,7 @@
         <f t="shared" si="14"/>
         <v>43687</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9">
         <f t="shared" si="13"/>
         <v>43702</v>
       </c>
@@ -2759,7 +2769,7 @@
         <f t="shared" si="14"/>
         <v>43687</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9">
         <f t="shared" si="13"/>
         <v>43702</v>
       </c>
@@ -2810,7 +2820,7 @@
         <f t="shared" si="14"/>
         <v>43689</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="9">
         <f t="shared" si="13"/>
         <v>43704</v>
       </c>
@@ -2861,7 +2871,7 @@
         <f t="shared" si="14"/>
         <v>43689</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="9">
         <f t="shared" si="13"/>
         <v>43704</v>
       </c>
@@ -3248,22 +3258,22 @@
       <c r="C48" s="1">
         <v>43683</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <f t="shared" si="6"/>
         <v>43683</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <f t="shared" si="0"/>
         <v>43684</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>43690</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="7">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
@@ -3318,7 +3328,7 @@
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <f t="shared" si="14"/>
         <v>43702</v>
       </c>
@@ -3350,22 +3360,22 @@
       <c r="C50" s="1">
         <v>43684</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <f t="shared" si="6"/>
         <v>43684</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <f t="shared" si="0"/>
         <v>43685</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>43690</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <f t="shared" si="12"/>
         <v>43692</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <f t="shared" si="17"/>
         <v>43697</v>
       </c>
@@ -3469,7 +3479,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3521,7 +3531,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3573,7 +3583,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3625,7 +3635,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3677,7 +3687,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3729,7 +3739,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3781,7 +3791,7 @@
         <f t="shared" si="12"/>
         <v>43697</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="5">
         <f t="shared" si="17"/>
         <v>43702</v>
       </c>
@@ -3833,7 +3843,7 @@
         <f t="shared" si="12"/>
         <v>43698</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="5">
         <f t="shared" si="17"/>
         <v>43703</v>
       </c>
@@ -3885,7 +3895,7 @@
         <f t="shared" si="12"/>
         <v>43698</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="5">
         <f t="shared" si="17"/>
         <v>43703</v>
       </c>
@@ -3937,7 +3947,7 @@
         <f t="shared" si="12"/>
         <v>43699</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="5">
         <f t="shared" si="17"/>
         <v>43704</v>
       </c>
@@ -4024,19 +4034,19 @@
       <c r="C63" s="1">
         <v>43695</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <f t="shared" si="6"/>
         <v>43695</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="7">
         <f t="shared" si="0"/>
         <v>43696</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <f t="shared" si="15"/>
         <v>43698</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="7">
         <f t="shared" si="12"/>
         <v>43700</v>
       </c>
@@ -4088,7 +4098,7 @@
         <f t="shared" si="15"/>
         <v>43700</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="5">
         <f t="shared" si="12"/>
         <v>43702</v>
       </c>
@@ -4135,7 +4145,7 @@
       <c r="E65" s="5">
         <v>43701</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="5">
         <f t="shared" si="15"/>
         <v>43703</v>
       </c>
@@ -4191,7 +4201,7 @@
         <f t="shared" si="15"/>
         <v>43701</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="5">
         <f t="shared" si="12"/>
         <v>43703</v>
       </c>
@@ -4239,11 +4249,11 @@
         <f t="shared" si="19"/>
         <v>43700</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="5">
         <f t="shared" si="15"/>
         <v>43702</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="5">
         <f t="shared" si="12"/>
         <v>43704</v>
       </c>
@@ -4288,44 +4298,43 @@
         <v>43699</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="19"/>
-        <v>43700</v>
-      </c>
-      <c r="F68" s="7">
+        <v>43702</v>
+      </c>
+      <c r="F68" s="5">
         <f t="shared" si="15"/>
-        <v>43702</v>
+        <v>43704</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="12"/>
-        <v>43704</v>
+        <v>43706</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="17"/>
-        <v>43709</v>
+        <v>43711</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="14"/>
-        <v>43714</v>
+        <v>43716</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="20"/>
-        <v>43729</v>
+        <v>43731</v>
       </c>
       <c r="K68" s="3">
         <f t="shared" si="18"/>
-        <v>43759</v>
+        <v>43761</v>
       </c>
       <c r="L68" s="3">
         <f t="shared" si="18"/>
-        <v>43789</v>
+        <v>43791</v>
       </c>
       <c r="M68" s="3">
         <f t="shared" si="21"/>
-        <v>43879</v>
+        <v>43881</v>
       </c>
       <c r="N68" s="3">
         <f t="shared" si="22"/>
-        <v>44059</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4339,11 +4348,11 @@
         <f t="shared" si="23"/>
         <v>43701</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="5">
         <f t="shared" si="19"/>
         <v>43702</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="5">
         <f t="shared" si="15"/>
         <v>43704</v>
       </c>
@@ -4387,11 +4396,11 @@
       <c r="C70" s="1">
         <v>43702</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <f t="shared" si="23"/>
         <v>43702</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="7">
         <f t="shared" si="19"/>
         <v>43703</v>
       </c>
@@ -4439,11 +4448,11 @@
       <c r="C71" s="1">
         <v>43702</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <f t="shared" si="23"/>
         <v>43702</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="7">
         <f t="shared" si="19"/>
         <v>43703</v>
       </c>
@@ -4485,279 +4494,315 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D72" s="3">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43703</v>
+      </c>
+      <c r="D72" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
+        <v>43703</v>
+      </c>
+      <c r="E72" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43704</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43706</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43708</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43713</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43718</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43733</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43763</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43793</v>
       </c>
       <c r="M72" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43883</v>
       </c>
       <c r="N72" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D73" s="3">
+      <c r="A73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43703</v>
+      </c>
+      <c r="D73" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
+        <v>43703</v>
+      </c>
+      <c r="E73" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43704</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43706</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43708</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43713</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43718</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43733</v>
       </c>
       <c r="K73" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43763</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43793</v>
       </c>
       <c r="M73" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43883</v>
       </c>
       <c r="N73" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D74" s="3">
+      <c r="A74" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43703</v>
+      </c>
+      <c r="D74" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
+        <v>43703</v>
+      </c>
+      <c r="E74" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43704</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43706</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43708</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43713</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43718</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43733</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43763</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43793</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43883</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D75" s="3">
+      <c r="A75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="1">
+        <v>43703</v>
+      </c>
+      <c r="D75" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
+        <v>43703</v>
+      </c>
+      <c r="E75" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43704</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43706</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43708</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43713</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43718</v>
       </c>
       <c r="J75" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43733</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43763</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43793</v>
       </c>
       <c r="M75" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43883</v>
       </c>
       <c r="N75" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43704</v>
+      </c>
       <c r="D76" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>43704</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43705</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43707</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43709</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43714</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43719</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43734</v>
       </c>
       <c r="K76" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43764</v>
       </c>
       <c r="L76" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43794</v>
       </c>
       <c r="M76" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43884</v>
       </c>
       <c r="N76" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43704</v>
+      </c>
       <c r="D77" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>43704</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>43705</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>43707</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>43709</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>43714</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>43719</v>
       </c>
       <c r="J77" s="3">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>43734</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>43764</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>43794</v>
       </c>
       <c r="M77" s="3">
         <f t="shared" si="21"/>
-        <v>180</v>
+        <v>43884</v>
       </c>
       <c r="N77" s="3">
         <f t="shared" si="22"/>
-        <v>360</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
